--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,10 @@
   </si>
   <si>
     <t>alpha=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +873,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +901,11 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="I2" s="1">
         <v>0.877</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -955,8 +965,11 @@
       <c r="I3" s="1">
         <v>0.98099999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,8 +997,11 @@
       <c r="I4" s="1">
         <v>0.88300000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,6 +1028,9 @@
       </c>
       <c r="I5" s="1">
         <v>0.85299999999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
